--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/DF/20/seed4/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/DF/20/seed4/result_data_KNN.xlsx
@@ -474,7 +474,7 @@
         <v>-8.220000000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>12.504</v>
+        <v>13.082</v>
       </c>
     </row>
     <row r="3">
@@ -491,7 +491,7 @@
         <v>-6.85</v>
       </c>
       <c r="E3" t="n">
-        <v>12.138</v>
+        <v>12.914</v>
       </c>
     </row>
     <row r="4">
@@ -525,7 +525,7 @@
         <v>-6.27</v>
       </c>
       <c r="E5" t="n">
-        <v>13.396</v>
+        <v>13.165</v>
       </c>
     </row>
     <row r="6">
@@ -590,7 +590,7 @@
         <v>-13.02</v>
       </c>
       <c r="D9" t="n">
-        <v>-8.356</v>
+        <v>-8.365</v>
       </c>
       <c r="E9" t="n">
         <v>12.31</v>
@@ -627,7 +627,7 @@
         <v>-8.01</v>
       </c>
       <c r="E11" t="n">
-        <v>13.396</v>
+        <v>13.012</v>
       </c>
     </row>
     <row r="12">
@@ -644,7 +644,7 @@
         <v>-10.06</v>
       </c>
       <c r="E12" t="n">
-        <v>13.396</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
@@ -658,7 +658,7 @@
         <v>-13.63</v>
       </c>
       <c r="D13" t="n">
-        <v>-7.578</v>
+        <v>-7.662999999999999</v>
       </c>
       <c r="E13" t="n">
         <v>12.56</v>
@@ -709,7 +709,7 @@
         <v>-9.779999999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>-8.5</v>
+        <v>-8.012</v>
       </c>
       <c r="E16" t="n">
         <v>13.16</v>
@@ -743,7 +743,7 @@
         <v>-15.19</v>
       </c>
       <c r="D18" t="n">
-        <v>-8.104000000000001</v>
+        <v>-8.176</v>
       </c>
       <c r="E18" t="n">
         <v>12.54</v>
@@ -777,7 +777,7 @@
         <v>-14.65</v>
       </c>
       <c r="D20" t="n">
-        <v>-8.103999999999999</v>
+        <v>-8.083</v>
       </c>
       <c r="E20" t="n">
         <v>13.73</v>
@@ -797,7 +797,7 @@
         <v>-8.890000000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>13.498</v>
+        <v>13.358</v>
       </c>
     </row>
     <row r="22">
